--- a/medicine/Mort/Cimetière_de_l'Ouest_(Rouen)/Cimetière_de_l'Ouest_(Rouen).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Ouest_(Rouen)/Cimetière_de_l'Ouest_(Rouen).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Rouen)</t>
+          <t>Cimetière_de_l'Ouest_(Rouen)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de l'Ouest est un cimetière de la ville de Rouen, situé au sud de Mont-Saint-Aignan.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Rouen)</t>
+          <t>Cimetière_de_l'Ouest_(Rouen)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a été mis en service le 15 septembre 1883 pour les paroisses de l'ouest de la ville (Saint-Vincent, la Madeleine, Saint-Gervais, Saint-Patrice, Saint-Godard, Saint-Romain, Sacré-Cœur) ainsi que l'Hôtel-Dieu et de la Morgue. 
 Il contient un cimetière militaire et un carré militaire allemand de soldats tombés en 1914-1918.
-C'est dans ce cimetière que sont inhumées les personnes indigentes de la ville[1].
+C'est dans ce cimetière que sont inhumées les personnes indigentes de la ville.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Rouen)</t>
+          <t>Cimetière_de_l'Ouest_(Rouen)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>May d'Alençon (1898-1968), autrice de livres et de contes pour la jeunesse.
-André Fouré (1917-1985)[1], abbé aumônier de l'école Bellefonds et des sœurs d'Ernemont, membre de l'Académie de Rouen.
-Raymond Rener (1943-2005)[2], éditeur et auteur de livres pour la jeunesse.
+André Fouré (1917-1985), abbé aumônier de l'école Bellefonds et des sœurs d'Ernemont, membre de l'Académie de Rouen.
+Raymond Rener (1943-2005), éditeur et auteur de livres pour la jeunesse.
 Adrien Segers (1876-1950), peintre d'origine belge.</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Rouen)</t>
+          <t>Cimetière_de_l'Ouest_(Rouen)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Personnalités fictives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gaston Bicon dit « Thanase Pèqueu » (1880-1948), vedette de plusieurs romans de Gabriel Benoist.</t>
         </is>
